--- a/Toulmin/_toulmin_example_argument.xlsx
+++ b/Toulmin/_toulmin_example_argument.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B02D2D7-9FAE-4F57-902D-4C797ACDC787}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A33206B-B2C2-457B-BA9E-9D0C03903C76}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31128" yWindow="-11328" windowWidth="18948" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20916" yWindow="1032" windowWidth="18948" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Toulmin Voorbeeldredenering" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>ttScope</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>backingForWarrant</t>
+  </si>
+  <si>
+    <t>ttIsClean</t>
+  </si>
+  <si>
+    <t>targIsClean</t>
   </si>
 </sst>
 </file>
@@ -638,25 +644,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="80.5546875" style="8" customWidth="1"/>
-    <col min="6" max="8" width="24.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="3" width="16.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="80.5546875" style="8" customWidth="1"/>
+    <col min="7" max="9" width="24.77734375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -664,45 +670,52 @@
         <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2" t="str">
+        <f>$A2</f>
+        <v>Scope</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="str">
         <f>IF(T($B3)="","",$B3)</f>
         <v>ZaakTemplate_1</v>
@@ -711,14 +724,18 @@
         <v>38</v>
       </c>
       <c r="C3" s="9" t="str">
+        <f t="shared" ref="C3:C4" si="0">IF($B3="","",$A3)</f>
+        <v>ZaakTemplate_1</v>
+      </c>
+      <c r="D3" s="9" t="str">
         <f>'[1]Accounts for Testing Purposes'!$A$4</f>
         <v>Acc_theo</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="str">
         <f>IF(T($B4)="","",$B4)</f>
         <v>Zaak_1</v>
@@ -727,19 +744,23 @@
         <v>27</v>
       </c>
       <c r="C4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Zaak_1</v>
+      </c>
+      <c r="D4" s="9" t="str">
         <f>'[1]Accounts for Testing Purposes'!$A$4</f>
         <v>Acc_theo</v>
       </c>
-      <c r="F4" s="9" t="str">
+      <c r="G4" s="9" t="str">
         <f>$A$3</f>
         <v>ZaakTemplate_1</v>
       </c>
-      <c r="G4" s="9" t="str">
+      <c r="H4" s="9" t="str">
         <f>$A4</f>
         <v>Zaak_1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -747,16 +768,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
@@ -764,27 +785,30 @@
       <c r="H6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="str">
+      <c r="C7" s="2" t="str">
         <f>$A7</f>
         <v>TText</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="G7" s="2" t="str">
         <f>$A7</f>
@@ -794,136 +818,168 @@
         <f>$A7</f>
         <v>TText</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="2" t="str">
+        <f>$A7</f>
+        <v>TText</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="str">
-        <f>IF(T($C8)="","",$C8)</f>
+        <f>IF(T($D8)="","",$D8)</f>
         <v>Overtreding Art. 62 RVV</v>
       </c>
       <c r="B8" s="9" t="str">
-        <f t="shared" ref="B8:B9" si="0">$A$3</f>
-        <v>ZaakTemplate_1</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <f t="shared" ref="B8:B9" si="1">$A$3</f>
+        <v>ZaakTemplate_1</v>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f>IF($B8="","",$A8)</f>
+        <v>Overtreding Art. 62 RVV</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="str">
-        <f>IF(T($C9)="","",$C9)</f>
+        <f>IF(T($D9)="","",$D9)</f>
         <v>Overtreding Art. 68.1.c RVV</v>
       </c>
       <c r="B9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>ZaakTemplate_1</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <f t="shared" si="1"/>
+        <v>ZaakTemplate_1</v>
+      </c>
+      <c r="C9" s="9" t="str">
+        <f t="shared" ref="C9:C14" si="2">IF($B9="","",$A9)</f>
+        <v>Overtreding Art. 68.1.c RVV</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="str">
-        <f>IF(T($C10)="","",$C10)</f>
+        <f>IF(T($D10)="","",$D10)</f>
         <v>weggebruiker</v>
       </c>
       <c r="B10" s="9" t="str">
         <f>$A$3</f>
         <v>ZaakTemplate_1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>weggebruiker</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="str">
-        <f t="shared" ref="A11:A14" si="1">IF(T($C11)="","",$C11)</f>
+        <f t="shared" ref="A11:A14" si="3">IF(T($D11)="","",$D11)</f>
         <v>overtreder</v>
       </c>
       <c r="B11" s="9" t="str">
-        <f t="shared" ref="B11:B14" si="2">$A$3</f>
-        <v>ZaakTemplate_1</v>
-      </c>
-      <c r="C11" s="4" t="s">
+        <f t="shared" ref="B11:B14" si="4">$A$3</f>
+        <v>ZaakTemplate_1</v>
+      </c>
+      <c r="C11" s="9" t="str">
+        <f t="shared" si="2"/>
+        <v>overtreder</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>foto-id</v>
       </c>
       <c r="B12" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>ZaakTemplate_1</v>
+      </c>
+      <c r="C12" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>ZaakTemplate_1</v>
-      </c>
-      <c r="C12" s="4" t="s">
+        <v>foto-id</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>bestuurder</v>
       </c>
       <c r="B13" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>ZaakTemplate_1</v>
+      </c>
+      <c r="C13" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>ZaakTemplate_1</v>
-      </c>
-      <c r="C13" s="4" t="s">
+        <v>bestuurder</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>kenteken</v>
       </c>
       <c r="B14" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>ZaakTemplate_1</v>
+      </c>
+      <c r="C14" s="9" t="str">
         <f t="shared" si="2"/>
-        <v>ZaakTemplate_1</v>
-      </c>
-      <c r="C14" s="4" t="s">
+        <v>kenteken</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -931,43 +987,46 @@
         <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2" t="str">
+      <c r="C17" s="2" t="str">
         <f>$A17</f>
         <v>TText</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="G17" s="2" t="str">
         <f>$A17</f>
@@ -977,98 +1036,118 @@
         <f>$A17</f>
         <v>TText</v>
       </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="I17" s="2" t="str">
+        <f>$A17</f>
+        <v>TText</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="str">
-        <f t="shared" ref="A18:A21" si="3">IF(T($C18)="","",$C18)</f>
+        <f t="shared" ref="A18:A21" si="5">IF(T($D18)="","",$D18)</f>
         <v>Art. 1 RVV</v>
       </c>
       <c r="B18" s="9" t="str">
-        <f t="shared" ref="B18:B21" si="4">$A$3</f>
-        <v>ZaakTemplate_1</v>
-      </c>
-      <c r="C18" s="4" t="s">
+        <f t="shared" ref="B18:B21" si="6">$A$3</f>
+        <v>ZaakTemplate_1</v>
+      </c>
+      <c r="C18" s="9" t="str">
+        <f t="shared" ref="C18:C21" si="7">IF($B18="","",$A18)</f>
+        <v>Art. 1 RVV</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="str">
-        <f>IF(T($C19)="","",$C19)</f>
+        <f>IF(T($D19)="","",$D19)</f>
         <v>Art. 62 RVV</v>
       </c>
       <c r="B19" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ZaakTemplate_1</v>
-      </c>
-      <c r="C19" s="4" t="s">
+        <f t="shared" si="6"/>
+        <v>ZaakTemplate_1</v>
+      </c>
+      <c r="C19" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Art. 62 RVV</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Art. 68.1.c RVV</v>
       </c>
       <c r="B20" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ZaakTemplate_1</v>
-      </c>
-      <c r="C20" s="4" t="s">
+        <f t="shared" si="6"/>
+        <v>ZaakTemplate_1</v>
+      </c>
+      <c r="C20" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Art. 68.1.c RVV</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Art. 87 RVV</v>
       </c>
       <c r="B21" s="9" t="str">
-        <f t="shared" si="4"/>
-        <v>ZaakTemplate_1</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <f t="shared" si="6"/>
+        <v>ZaakTemplate_1</v>
+      </c>
+      <c r="C21" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>Art. 87 RVV</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E23" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E27" s="3"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
